--- a/Excel Cookbook/CH1_workbooks_worksheets_cells.xlsx
+++ b/Excel Cookbook/CH1_workbooks_worksheets_cells.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffi\BDSE36Data_Analysis\Excel Cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D09180-B823-4E10-AD79-0D346F3D2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E589E89-676B-4B70-B959-BA122C16AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ADDBA9E1-AFAF-4662-9B0B-3C5DA73CA734}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADDBA9E1-AFAF-4662-9B0B-3C5DA73CA734}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1-1." sheetId="1" r:id="rId1"/>
+    <sheet name="1.5 Custom Format" sheetId="3" r:id="rId1"/>
+    <sheet name="1.9 Conditional Formatting" sheetId="2" r:id="rId2"/>
+    <sheet name="1.12 Auto Fill" sheetId="4" r:id="rId3"/>
+    <sheet name="1.14 Flash Fill" sheetId="5" r:id="rId4"/>
+    <sheet name="1.16 Notes and Comments" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +39,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+  <si>
+    <t>Data bars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color scales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon sets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>#.##</t>
+  </si>
+  <si>
+    <t>0.##</t>
+  </si>
+  <si>
+    <t>#,##0.00</t>
+  </si>
+  <si>
+    <t>000.00</t>
+  </si>
+  <si>
+    <t>0.??</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00;(0.00)</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>"Balance: "$0.00</t>
+  </si>
+  <si>
+    <t>"Balance: "$0.00;"Balance: "-$0.00</t>
+  </si>
+  <si>
+    <t>_(0.00_);(0.00)</t>
+  </si>
+  <si>
+    <t>*0#</t>
+  </si>
+  <si>
+    <t>General;-General;0;General</t>
+  </si>
+  <si>
+    <t>General;(General);0;@</t>
+  </si>
+  <si>
+    <t>General;-General;0;"Text: "@</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>dd mmmm yyyy hh:mm:ss</t>
+  </si>
+  <si>
+    <t>d-mmm-yyyy h:mm:ss AM/PM</t>
+  </si>
+  <si>
+    <t>dddd, mm/dd/yyyy</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy Pond</t>
+  </si>
+  <si>
+    <t>Clara Oswald</t>
+  </si>
+  <si>
+    <t>Rose Tyler</t>
+  </si>
+  <si>
+    <t>Jackie Tyler</t>
+  </si>
+  <si>
+    <t>First name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="20">
+    <numFmt numFmtId="176" formatCode="#.##"/>
+    <numFmt numFmtId="177" formatCode="0.##"/>
+    <numFmt numFmtId="178" formatCode="000.00"/>
+    <numFmt numFmtId="179" formatCode="0.??"/>
+    <numFmt numFmtId="180" formatCode="0,"/>
+    <numFmt numFmtId="181" formatCode="0.00;\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;$&quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;Balance: &quot;&quot;$&quot;0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;Balance: &quot;&quot;$&quot;0.00;&quot;Balance: &quot;\-&quot;$&quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="_(0.00_);\(0.00\)"/>
+    <numFmt numFmtId="186" formatCode="*0#"/>
+    <numFmt numFmtId="187" formatCode="0* "/>
+    <numFmt numFmtId="188" formatCode="[Green]0.00;[Red]\-0.00;0;@"/>
+    <numFmt numFmtId="189" formatCode="General;\-General;0"/>
+    <numFmt numFmtId="190" formatCode="General;\(General\);0;@"/>
+    <numFmt numFmtId="191" formatCode="General;\-General;0;&quot;Text: &quot;@"/>
+    <numFmt numFmtId="192" formatCode="[Red][&lt;100]#0;[Blue][&gt;1000]#0;#0"/>
+    <numFmt numFmtId="193" formatCode="dd\ mmmm\ yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="194" formatCode="d\-mmm\-yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="195" formatCode="dddd\,\ mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +212,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,25 +258,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{7C7D45D8-B417-482F-A6E3-899EBCDE237A}"/>
     <cellStyle name="框線" xfId="1" xr:uid="{4EA1F870-5FB4-470D-B3F2-2FC97ED66B4C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,6 +378,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -292,11 +552,798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02611BEB-53B0-42F5-934D-B008229CB6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836F044B-8A80-401E-91A1-4E55D28B8B62}">
+  <dimension ref="B2:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.4140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123</v>
+      </c>
+      <c r="D3" s="6">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7">
+        <v>123</v>
+      </c>
+      <c r="F3" s="8">
+        <v>123</v>
+      </c>
+      <c r="G3" s="9">
+        <v>123</v>
+      </c>
+      <c r="H3" s="10">
+        <v>123</v>
+      </c>
+      <c r="I3" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E4" s="7">
+        <v>12345</v>
+      </c>
+      <c r="F4" s="8">
+        <v>12345</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12345</v>
+      </c>
+      <c r="H4" s="10">
+        <v>12345</v>
+      </c>
+      <c r="I4" s="11">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>12345.678</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12345.678</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12345.678</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12345.678</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12345.678</v>
+      </c>
+      <c r="G7" s="9">
+        <v>12345.678</v>
+      </c>
+      <c r="H7" s="10">
+        <v>12345.678</v>
+      </c>
+      <c r="I7" s="11">
+        <v>12345.678</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>123</v>
+      </c>
+      <c r="C10" s="13">
+        <v>123</v>
+      </c>
+      <c r="D10" s="14">
+        <v>123</v>
+      </c>
+      <c r="E10" s="15">
+        <v>123</v>
+      </c>
+      <c r="F10" s="16">
+        <v>123</v>
+      </c>
+      <c r="G10" s="17">
+        <v>123</v>
+      </c>
+      <c r="H10" s="18">
+        <v>123</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>-123</v>
+      </c>
+      <c r="C11" s="13">
+        <v>-123</v>
+      </c>
+      <c r="D11" s="14">
+        <v>-123</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-123</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-123</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-123</v>
+      </c>
+      <c r="H11" s="18">
+        <v>-123</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>123</v>
+      </c>
+      <c r="C15" s="21">
+        <v>123</v>
+      </c>
+      <c r="D15" s="22">
+        <v>123</v>
+      </c>
+      <c r="E15" s="23">
+        <v>123</v>
+      </c>
+      <c r="G15" s="20">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>-123</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-123</v>
+      </c>
+      <c r="D16" s="22">
+        <v>-123</v>
+      </c>
+      <c r="E16" s="23">
+        <v>-123</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="24">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
+        <v>45231.698263888888</v>
+      </c>
+      <c r="C21" s="26">
+        <v>45231.698263888888</v>
+      </c>
+      <c r="D21" s="27">
+        <v>45231.698263888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2 I2 D9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E40633-3940-4836-BE95-248B491CAA72}">
+  <dimension ref="D4:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0AD92CEB-9F9E-476B-A741-C972B306EC5F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="top10" dxfId="3" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="top10" dxfId="2" priority="6" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0AD92CEB-9F9E-476B-A741-C972B306EC5F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB20C432-4E39-4751-9D10-C99FE2B001D7}">
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45757</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45758</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45759</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45760</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45761</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1024</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ECD42B-50D2-4359-AA0F-A37E5A47855C}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023267FF-3790-4DB2-906B-8354E88A9BB2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
